--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1910.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1910.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF05122-1198-4C0F-B47A-308554DB77EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FB1926-A3B8-4D11-9DDF-02B59685BCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="22740" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="Q84" sqref="Q84:S84"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3844,25 +3844,43 @@
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="B53" s="2">
+        <v>4674.8</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4646.1000000000004</v>
+      </c>
+      <c r="D53" s="2">
+        <v>9320.9</v>
+      </c>
       <c r="E53" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="G53" s="2">
+        <v>1430.7</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1377.6</v>
+      </c>
+      <c r="I53" s="2">
+        <v>2808.3</v>
+      </c>
       <c r="J53" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="L53" s="2">
+        <v>6105.5</v>
+      </c>
+      <c r="M53" s="2">
+        <v>6023.7</v>
+      </c>
+      <c r="N53" s="2">
+        <v>12129.2</v>
+      </c>
       <c r="O53" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3884,25 +3902,43 @@
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="B54" s="2">
+        <v>725</v>
+      </c>
+      <c r="C54" s="2">
+        <v>698</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1423</v>
+      </c>
       <c r="E54" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="G54" s="2">
+        <v>526.79999999999995</v>
+      </c>
+      <c r="H54" s="2">
+        <v>532.20000000000005</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1059</v>
+      </c>
       <c r="J54" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="L54" s="2">
+        <v>1251.8</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1230.2</v>
+      </c>
+      <c r="N54" s="2">
+        <v>2482</v>
+      </c>
       <c r="O54" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3924,25 +3960,43 @@
       <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="2">
+        <v>475.8</v>
+      </c>
+      <c r="C55" s="2">
+        <v>486</v>
+      </c>
+      <c r="D55" s="2">
+        <v>961.8</v>
+      </c>
       <c r="E55" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="G55" s="2">
+        <v>82.4</v>
+      </c>
+      <c r="H55" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="I55" s="2">
+        <v>164.9</v>
+      </c>
       <c r="J55" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="L55" s="2">
+        <v>558.20000000000005</v>
+      </c>
+      <c r="M55" s="2">
+        <v>568.5</v>
+      </c>
+      <c r="N55" s="2">
+        <v>1126.7</v>
+      </c>
       <c r="O55" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3964,25 +4018,43 @@
       <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="B56" s="2">
+        <v>442.5</v>
+      </c>
+      <c r="C56" s="2">
+        <v>448.7</v>
+      </c>
+      <c r="D56" s="2">
+        <v>891.2</v>
+      </c>
       <c r="E56" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="G56" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H56" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="I56" s="2">
+        <v>74</v>
+      </c>
       <c r="J56" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="L56" s="2">
+        <v>480.2</v>
+      </c>
+      <c r="M56" s="2">
+        <v>485</v>
+      </c>
+      <c r="N56" s="2">
+        <v>965.2</v>
+      </c>
       <c r="O56" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4004,25 +4076,43 @@
       <c r="A57" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="B57" s="2">
+        <v>305.8</v>
+      </c>
+      <c r="C57" s="2">
+        <v>290.39999999999998</v>
+      </c>
+      <c r="D57" s="2">
+        <v>596.20000000000005</v>
+      </c>
       <c r="E57" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="G57" s="2">
+        <v>49</v>
+      </c>
+      <c r="H57" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="I57" s="2">
+        <v>87.4</v>
+      </c>
       <c r="J57" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="L57" s="2">
+        <v>354.8</v>
+      </c>
+      <c r="M57" s="2">
+        <v>328.8</v>
+      </c>
+      <c r="N57" s="2">
+        <v>683.6</v>
+      </c>
       <c r="O57" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4044,25 +4134,43 @@
       <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="B58" s="2">
+        <v>659</v>
+      </c>
+      <c r="C58" s="2">
+        <v>645</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1304</v>
+      </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="G58" s="2">
+        <v>111.4</v>
+      </c>
+      <c r="H58" s="2">
+        <v>92.9</v>
+      </c>
+      <c r="I58" s="2">
+        <v>204.3</v>
+      </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="L58" s="2">
+        <v>770.4</v>
+      </c>
+      <c r="M58" s="2">
+        <v>737.9</v>
+      </c>
+      <c r="N58" s="2">
+        <v>1508.3</v>
+      </c>
       <c r="O58" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4084,25 +4192,43 @@
       <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="B59" s="2">
+        <v>577.70000000000005</v>
+      </c>
+      <c r="C59" s="2">
+        <v>581.20000000000005</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1158.9000000000001</v>
+      </c>
       <c r="E59" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="G59" s="2">
+        <v>386.6</v>
+      </c>
+      <c r="H59" s="2">
+        <v>387.9</v>
+      </c>
+      <c r="I59" s="2">
+        <v>774.5</v>
+      </c>
       <c r="J59" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="L59" s="2">
+        <v>964.3</v>
+      </c>
+      <c r="M59" s="2">
+        <v>969.1</v>
+      </c>
+      <c r="N59" s="2">
+        <v>1933.4</v>
+      </c>
       <c r="O59" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4124,25 +4250,43 @@
       <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="B60" s="2">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="C60" s="2">
+        <v>303.2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>595.6</v>
+      </c>
       <c r="E60" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="G60" s="2">
+        <v>56.6</v>
+      </c>
+      <c r="H60" s="2">
+        <v>47.8</v>
+      </c>
+      <c r="I60" s="2">
+        <v>104.4</v>
+      </c>
       <c r="J60" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="L60" s="2">
+        <v>349</v>
+      </c>
+      <c r="M60" s="2">
+        <v>351</v>
+      </c>
+      <c r="N60" s="2">
+        <v>700</v>
+      </c>
       <c r="O60" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4164,25 +4308,43 @@
       <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="B61" s="2">
+        <v>482.1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>478.4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>960.5</v>
+      </c>
       <c r="E61" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="G61" s="2">
+        <v>61.6</v>
+      </c>
+      <c r="H61" s="2">
+        <v>58.7</v>
+      </c>
+      <c r="I61" s="2">
+        <v>120.3</v>
+      </c>
       <c r="J61" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="L61" s="2">
+        <v>543.70000000000005</v>
+      </c>
+      <c r="M61" s="2">
+        <v>537.1</v>
+      </c>
+      <c r="N61" s="2">
+        <v>1080.8</v>
+      </c>
       <c r="O61" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4204,25 +4366,43 @@
       <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="B62" s="2">
+        <v>289</v>
+      </c>
+      <c r="C62" s="2">
+        <v>294.60000000000002</v>
+      </c>
+      <c r="D62" s="2">
+        <v>583.6</v>
+      </c>
       <c r="E62" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="G62" s="2">
+        <v>45.7</v>
+      </c>
+      <c r="H62" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" s="2">
+        <v>83.7</v>
+      </c>
       <c r="J62" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="L62" s="2">
+        <v>334.7</v>
+      </c>
+      <c r="M62" s="2">
+        <v>332.6</v>
+      </c>
+      <c r="N62" s="2">
+        <v>667.3</v>
+      </c>
       <c r="O62" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4244,25 +4424,43 @@
       <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="B63" s="2">
+        <v>425.5</v>
+      </c>
+      <c r="C63" s="2">
+        <v>420.6</v>
+      </c>
+      <c r="D63" s="2">
+        <v>846.1</v>
+      </c>
       <c r="E63" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="G63" s="2">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="H63" s="2">
+        <v>62.9</v>
+      </c>
+      <c r="I63" s="2">
+        <v>135.80000000000001</v>
+      </c>
       <c r="J63" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="L63" s="2">
+        <v>498.4</v>
+      </c>
+      <c r="M63" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="N63" s="2">
+        <v>981.9</v>
+      </c>
       <c r="O63" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4284,25 +4482,43 @@
       <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="B64" s="2">
+        <v>5319.6</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4899.8</v>
+      </c>
+      <c r="D64" s="2">
+        <v>10219.4</v>
+      </c>
       <c r="E64" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="G64" s="2">
+        <v>853.2</v>
+      </c>
+      <c r="H64" s="2">
+        <v>662.5</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1515.7</v>
+      </c>
       <c r="J64" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="L64" s="2">
+        <v>6172.8</v>
+      </c>
+      <c r="M64" s="2">
+        <v>5562.3</v>
+      </c>
+      <c r="N64" s="2">
+        <v>11735.1</v>
+      </c>
       <c r="O64" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4324,25 +4540,43 @@
       <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="B65" s="2">
+        <v>409.1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>336.8</v>
+      </c>
+      <c r="D65" s="2">
+        <v>745.9</v>
+      </c>
       <c r="E65" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="G65" s="2">
+        <v>163.5</v>
+      </c>
+      <c r="H65" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="I65" s="2">
+        <v>268</v>
+      </c>
       <c r="J65" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="L65" s="2">
+        <v>572.6</v>
+      </c>
+      <c r="M65" s="2">
+        <v>441.3</v>
+      </c>
+      <c r="N65" s="2">
+        <v>1013.9</v>
+      </c>
       <c r="O65" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4364,25 +4598,43 @@
       <c r="A66" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="B66" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="C66" s="2">
+        <v>61.3</v>
+      </c>
+      <c r="D66" s="2">
+        <v>122.8</v>
+      </c>
       <c r="E66" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="G66" s="2">
+        <v>26.7</v>
+      </c>
+      <c r="H66" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="I66" s="2">
+        <v>41.5</v>
+      </c>
       <c r="J66" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="L66" s="2">
+        <v>88.2</v>
+      </c>
+      <c r="M66" s="2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="N66" s="2">
+        <v>164.3</v>
+      </c>
       <c r="O66" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4404,25 +4656,43 @@
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="B67" s="2">
+        <v>302.8</v>
+      </c>
+      <c r="C67" s="2">
+        <v>295.39999999999998</v>
+      </c>
+      <c r="D67" s="2">
+        <v>598.20000000000005</v>
+      </c>
       <c r="E67" s="4">
         <f t="shared" ref="E67:E109" si="6">B67+C67-D67</f>
         <v>0</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="G67" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="H67" s="2">
+        <v>33</v>
+      </c>
+      <c r="I67" s="2">
+        <v>77.599999999999994</v>
+      </c>
       <c r="J67" s="4">
         <f t="shared" ref="J67:J109" si="7">G67+H67-I67</f>
         <v>0</v>
       </c>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="L67" s="2">
+        <v>347.4</v>
+      </c>
+      <c r="M67" s="2">
+        <v>328.4</v>
+      </c>
+      <c r="N67" s="2">
+        <v>675.8</v>
+      </c>
       <c r="O67" s="4">
         <f t="shared" ref="O67:O109" si="8">L67+M67-N67</f>
         <v>0</v>
@@ -4444,25 +4714,43 @@
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="B68" s="2">
+        <v>502.7</v>
+      </c>
+      <c r="C68" s="2">
+        <v>410</v>
+      </c>
+      <c r="D68" s="2">
+        <v>912.7</v>
+      </c>
       <c r="E68" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="G68" s="2">
+        <v>51.6</v>
+      </c>
+      <c r="H68" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="I68" s="2">
+        <v>95.1</v>
+      </c>
       <c r="J68" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="L68" s="2">
+        <v>554.29999999999995</v>
+      </c>
+      <c r="M68" s="2">
+        <v>453.5</v>
+      </c>
+      <c r="N68" s="2">
+        <v>1007.8</v>
+      </c>
       <c r="O68" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4484,25 +4772,43 @@
       <c r="A69" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="B69" s="2">
+        <v>46.9</v>
+      </c>
+      <c r="C69" s="2">
+        <v>41.6</v>
+      </c>
+      <c r="D69" s="2">
+        <v>88.5</v>
+      </c>
       <c r="E69" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="G69" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I69" s="2">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="J69" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="L69" s="2">
+        <v>49.6</v>
+      </c>
+      <c r="M69" s="2">
+        <v>43.8</v>
+      </c>
+      <c r="N69" s="2">
+        <v>93.4</v>
+      </c>
       <c r="O69" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4524,25 +4830,43 @@
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="B70" s="2">
+        <v>176.2</v>
+      </c>
+      <c r="C70" s="2">
+        <v>151.6</v>
+      </c>
+      <c r="D70" s="2">
+        <v>327.8</v>
+      </c>
       <c r="E70" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="G70" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="H70" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I70" s="2">
+        <v>42.8</v>
+      </c>
       <c r="J70" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="L70" s="2">
+        <v>199.4</v>
+      </c>
+      <c r="M70" s="2">
+        <v>171.2</v>
+      </c>
+      <c r="N70" s="2">
+        <v>370.6</v>
+      </c>
       <c r="O70" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4564,25 +4888,43 @@
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="B71" s="2">
+        <v>1221.0999999999999</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1185</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2406.1</v>
+      </c>
       <c r="E71" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="G71" s="2">
+        <v>112.6</v>
+      </c>
+      <c r="H71" s="2">
+        <v>107.1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>219.7</v>
+      </c>
       <c r="J71" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="L71" s="2">
+        <v>1333.7</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1292.0999999999999</v>
+      </c>
+      <c r="N71" s="2">
+        <v>2625.8</v>
+      </c>
       <c r="O71" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4604,25 +4946,43 @@
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="B72" s="2">
+        <v>479.1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>451.2</v>
+      </c>
+      <c r="D72" s="2">
+        <v>930.3</v>
+      </c>
       <c r="E72" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="G72" s="2">
+        <v>36</v>
+      </c>
+      <c r="H72" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="I72" s="2">
+        <v>60.5</v>
+      </c>
       <c r="J72" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="L72" s="2">
+        <v>515.1</v>
+      </c>
+      <c r="M72" s="2">
+        <v>475.7</v>
+      </c>
+      <c r="N72" s="2">
+        <v>990.8</v>
+      </c>
       <c r="O72" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4644,25 +5004,43 @@
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="B73" s="2">
+        <v>581.6</v>
+      </c>
+      <c r="C73" s="2">
+        <v>579.1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1160.7</v>
+      </c>
       <c r="E73" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="G73" s="2">
+        <v>36</v>
+      </c>
+      <c r="H73" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="I73" s="2">
+        <v>70.400000000000006</v>
+      </c>
       <c r="J73" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="L73" s="2">
+        <v>617.6</v>
+      </c>
+      <c r="M73" s="2">
+        <v>613.5</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1231.0999999999999</v>
+      </c>
       <c r="O73" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4684,25 +5062,43 @@
       <c r="A74" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="B74" s="2">
+        <v>60.4</v>
+      </c>
+      <c r="C74" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="D74" s="2">
+        <v>115.9</v>
+      </c>
       <c r="E74" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="G74" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>7</v>
+      </c>
+      <c r="I74" s="2">
+        <v>16.100000000000001</v>
+      </c>
       <c r="J74" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="L74" s="2">
+        <v>69.5</v>
+      </c>
+      <c r="M74" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="N74" s="2">
+        <v>132</v>
+      </c>
       <c r="O74" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4724,25 +5120,43 @@
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="B75" s="2">
+        <v>503.9</v>
+      </c>
+      <c r="C75" s="2">
+        <v>468.7</v>
+      </c>
+      <c r="D75" s="2">
+        <v>972.6</v>
+      </c>
       <c r="E75" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="G75" s="2">
+        <v>112.5</v>
+      </c>
+      <c r="H75" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="I75" s="2">
+        <v>210.1</v>
+      </c>
       <c r="J75" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="L75" s="2">
+        <v>616.4</v>
+      </c>
+      <c r="M75" s="2">
+        <v>566.29999999999995</v>
+      </c>
+      <c r="N75" s="2">
+        <v>1182.7</v>
+      </c>
       <c r="O75" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4764,25 +5178,43 @@
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="B76" s="2">
+        <v>481.5</v>
+      </c>
+      <c r="C76" s="2">
+        <v>426.9</v>
+      </c>
+      <c r="D76" s="2">
+        <v>908.41</v>
+      </c>
       <c r="E76" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-9.9999999999909051E-3</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+      <c r="G76" s="2">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="H76" s="2">
+        <v>105.5</v>
+      </c>
+      <c r="I76" s="2">
+        <v>255.2</v>
+      </c>
       <c r="J76" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="L76" s="2">
+        <v>631.20000000000005</v>
+      </c>
+      <c r="M76" s="2">
+        <v>532.4</v>
+      </c>
+      <c r="N76" s="2">
+        <v>1163.5999999999999</v>
+      </c>
       <c r="O76" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4797,32 +5229,50 @@
       </c>
       <c r="S76" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9.9999999999909051E-3</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="B77" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="D77" s="2">
+        <v>67.599999999999994</v>
+      </c>
       <c r="E77" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="G77" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="H77" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="I77" s="2">
+        <v>58.6</v>
+      </c>
       <c r="J77" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="L77" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="M77" s="2">
+        <v>58.7</v>
+      </c>
+      <c r="N77" s="2">
+        <v>126.2</v>
+      </c>
       <c r="O77" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4844,25 +5294,43 @@
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="B78" s="2">
+        <v>455.7</v>
+      </c>
+      <c r="C78" s="2">
+        <v>406.2</v>
+      </c>
+      <c r="D78" s="2">
+        <v>861.9</v>
+      </c>
       <c r="E78" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="G78" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="H78" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="I78" s="2">
+        <v>95.2</v>
+      </c>
       <c r="J78" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="L78" s="2">
+        <v>510.3</v>
+      </c>
+      <c r="M78" s="2">
+        <v>446.8</v>
+      </c>
+      <c r="N78" s="2">
+        <v>957.1</v>
+      </c>
       <c r="O78" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4884,25 +5352,43 @@
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="B79" s="2">
+        <v>3718.7</v>
+      </c>
+      <c r="C79" s="2">
+        <v>3593.6</v>
+      </c>
+      <c r="D79" s="2">
+        <v>7312.3</v>
+      </c>
       <c r="E79" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="G79" s="2">
+        <v>488.6</v>
+      </c>
+      <c r="H79" s="2">
+        <v>419.2</v>
+      </c>
+      <c r="I79" s="2">
+        <v>907.8</v>
+      </c>
       <c r="J79" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="L79" s="2">
+        <v>4207.3</v>
+      </c>
+      <c r="M79" s="2">
+        <v>4012.8</v>
+      </c>
+      <c r="N79" s="2">
+        <v>8220.1</v>
+      </c>
       <c r="O79" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4924,25 +5410,43 @@
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="B80" s="2">
+        <v>87.2</v>
+      </c>
+      <c r="C80" s="2">
+        <v>65.7</v>
+      </c>
+      <c r="D80" s="2">
+        <v>152.9</v>
+      </c>
       <c r="E80" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="G80" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="H80" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="I80" s="2">
+        <v>64.8</v>
+      </c>
       <c r="J80" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="L80" s="2">
+        <v>127.4</v>
+      </c>
+      <c r="M80" s="2">
+        <v>90.3</v>
+      </c>
+      <c r="N80" s="2">
+        <v>217.7</v>
+      </c>
       <c r="O80" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4964,25 +5468,43 @@
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="B81" s="2">
+        <v>380.4</v>
+      </c>
+      <c r="C81" s="2">
+        <v>364.9</v>
+      </c>
+      <c r="D81" s="2">
+        <v>745.3</v>
+      </c>
       <c r="E81" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="G81" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="H81" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="I81" s="2">
+        <v>113.8</v>
+      </c>
       <c r="J81" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="L81" s="2">
+        <v>438.7</v>
+      </c>
+      <c r="M81" s="2">
+        <v>420.4</v>
+      </c>
+      <c r="N81" s="2">
+        <v>859.1</v>
+      </c>
       <c r="O81" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5004,25 +5526,43 @@
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="B82" s="2">
+        <v>367.9</v>
+      </c>
+      <c r="C82" s="2">
+        <v>352</v>
+      </c>
+      <c r="D82" s="2">
+        <v>719.9</v>
+      </c>
       <c r="E82" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+      <c r="G82" s="2">
+        <v>61.1</v>
+      </c>
+      <c r="H82" s="2">
+        <v>52.4</v>
+      </c>
+      <c r="I82" s="2">
+        <v>113.5</v>
+      </c>
       <c r="J82" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="L82" s="2">
+        <v>429</v>
+      </c>
+      <c r="M82" s="2">
+        <v>404.4</v>
+      </c>
+      <c r="N82" s="2">
+        <v>833.4</v>
+      </c>
       <c r="O82" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5044,25 +5584,43 @@
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="B83" s="2">
+        <v>297.2</v>
+      </c>
+      <c r="C83" s="2">
+        <v>276.3</v>
+      </c>
+      <c r="D83" s="2">
+        <v>573.5</v>
+      </c>
       <c r="E83" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="G83" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="H83" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="I83" s="2">
+        <v>101.4</v>
+      </c>
       <c r="J83" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="L83" s="2">
+        <v>348.7</v>
+      </c>
+      <c r="M83" s="2">
+        <v>326.2</v>
+      </c>
+      <c r="N83" s="2">
+        <v>674.9</v>
+      </c>
       <c r="O83" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5084,25 +5642,43 @@
       <c r="A84" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="B84" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="C84" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="D84" s="2">
+        <v>33.799999999999997</v>
+      </c>
       <c r="E84" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2">
+        <v>2</v>
+      </c>
       <c r="J84" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="L84" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="M84" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="N84" s="2">
+        <v>35.799999999999997</v>
+      </c>
       <c r="O84" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5124,25 +5700,43 @@
       <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="B85" s="2">
+        <v>121.2</v>
+      </c>
+      <c r="C85" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="D85" s="2">
+        <v>199.3</v>
+      </c>
       <c r="E85" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="G85" s="2">
+        <v>55.3</v>
+      </c>
+      <c r="H85" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="I85" s="2">
+        <v>81.8</v>
+      </c>
       <c r="J85" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="L85" s="2">
+        <v>176.5</v>
+      </c>
+      <c r="M85" s="2">
+        <v>104.6</v>
+      </c>
+      <c r="N85" s="2">
+        <v>281.10000000000002</v>
+      </c>
       <c r="O85" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5164,25 +5758,43 @@
       <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="B86" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C86" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D86" s="2">
+        <v>12.4</v>
+      </c>
       <c r="E86" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="G86" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1.4</v>
+      </c>
       <c r="J86" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="L86" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M86" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N86" s="2">
+        <v>13.8</v>
+      </c>
       <c r="O86" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5204,25 +5816,43 @@
       <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="B87" s="2">
+        <v>835.5</v>
+      </c>
+      <c r="C87" s="2">
+        <v>851.2</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1686.7</v>
+      </c>
       <c r="E87" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
+      <c r="G87" s="2">
+        <v>67.2</v>
+      </c>
+      <c r="H87" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="I87" s="2">
+        <v>131.69999999999999</v>
+      </c>
       <c r="J87" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+      <c r="L87" s="2">
+        <v>902.7</v>
+      </c>
+      <c r="M87" s="2">
+        <v>915.7</v>
+      </c>
+      <c r="N87" s="2">
+        <v>1818.4</v>
+      </c>
       <c r="O87" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5244,25 +5874,43 @@
       <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="B88" s="2">
+        <v>1449.5</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1436.5</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2886</v>
+      </c>
       <c r="E88" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="G88" s="2">
+        <v>146.5</v>
+      </c>
+      <c r="H88" s="2">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="I88" s="2">
+        <v>284.3</v>
+      </c>
       <c r="J88" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="L88" s="2">
+        <v>1596</v>
+      </c>
+      <c r="M88" s="2">
+        <v>1574.3</v>
+      </c>
+      <c r="N88" s="2">
+        <v>3170.3</v>
+      </c>
       <c r="O88" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5284,25 +5932,43 @@
       <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="B89" s="2">
+        <v>154</v>
+      </c>
+      <c r="C89" s="2">
+        <v>148.5</v>
+      </c>
+      <c r="D89" s="2">
+        <v>302.5</v>
+      </c>
       <c r="E89" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="G89" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="H89" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I89" s="2">
+        <v>13.1</v>
+      </c>
       <c r="J89" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="L89" s="2">
+        <v>160.6</v>
+      </c>
+      <c r="M89" s="2">
+        <v>155</v>
+      </c>
+      <c r="N89" s="2">
+        <v>315.60000000000002</v>
+      </c>
       <c r="O89" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5324,23 +5990,41 @@
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="B90" s="2">
+        <v>4621.8</v>
+      </c>
+      <c r="C90" s="2">
+        <v>4001.7</v>
+      </c>
+      <c r="D90" s="2">
+        <v>8623.5</v>
+      </c>
       <c r="E90" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="G90" s="2">
+        <v>735.6</v>
+      </c>
+      <c r="H90" s="2">
+        <v>614.29999999999995</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1349.9</v>
+      </c>
       <c r="J90" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="L90" s="2">
+        <v>5357.4</v>
+      </c>
+      <c r="M90" s="2">
+        <v>4616</v>
+      </c>
+      <c r="N90" s="2">
+        <v>9973.4</v>
+      </c>
       <c r="O90" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5362,25 +6046,43 @@
       <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="B91" s="2">
+        <v>463.3</v>
+      </c>
+      <c r="C91" s="2">
+        <v>430.2</v>
+      </c>
+      <c r="D91" s="2">
+        <v>893.5</v>
+      </c>
       <c r="E91" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
+      <c r="G91" s="2">
+        <v>79.7</v>
+      </c>
+      <c r="H91" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="I91" s="2">
+        <v>153.80000000000001</v>
+      </c>
       <c r="J91" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+      <c r="L91" s="2">
+        <v>543</v>
+      </c>
+      <c r="M91" s="2">
+        <v>504.3</v>
+      </c>
+      <c r="N91" s="2">
+        <v>1047.3</v>
+      </c>
       <c r="O91" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5402,25 +6104,43 @@
       <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="B92" s="2">
+        <v>200.3</v>
+      </c>
+      <c r="C92" s="2">
+        <v>180.6</v>
+      </c>
+      <c r="D92" s="2">
+        <v>380.9</v>
+      </c>
       <c r="E92" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+      <c r="G92" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="H92" s="2">
+        <v>18</v>
+      </c>
+      <c r="I92" s="2">
+        <v>59.9</v>
+      </c>
       <c r="J92" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="L92" s="2">
+        <v>242.2</v>
+      </c>
+      <c r="M92" s="2">
+        <v>198.6</v>
+      </c>
+      <c r="N92" s="2">
+        <v>440.8</v>
+      </c>
       <c r="O92" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5442,25 +6162,43 @@
       <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="B93" s="2">
+        <v>539.79999999999995</v>
+      </c>
+      <c r="C93" s="2">
+        <v>443.5</v>
+      </c>
+      <c r="D93" s="2">
+        <v>983.3</v>
+      </c>
       <c r="E93" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
+      <c r="G93" s="2">
+        <v>103.9</v>
+      </c>
+      <c r="H93" s="2">
+        <v>82.7</v>
+      </c>
+      <c r="I93" s="2">
+        <v>186.6</v>
+      </c>
       <c r="J93" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+      <c r="L93" s="2">
+        <v>643.70000000000005</v>
+      </c>
+      <c r="M93" s="2">
+        <v>526.20000000000005</v>
+      </c>
+      <c r="N93" s="2">
+        <v>1169.9000000000001</v>
+      </c>
       <c r="O93" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5482,25 +6220,43 @@
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="B94" s="2">
+        <v>419.4</v>
+      </c>
+      <c r="C94" s="2">
+        <v>358.2</v>
+      </c>
+      <c r="D94" s="2">
+        <v>777.6</v>
+      </c>
       <c r="E94" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
+      <c r="G94" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="H94" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="I94" s="2">
+        <v>64.599999999999994</v>
+      </c>
       <c r="J94" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="L94" s="2">
+        <v>453.5</v>
+      </c>
+      <c r="M94" s="2">
+        <v>388.7</v>
+      </c>
+      <c r="N94" s="2">
+        <v>842.2</v>
+      </c>
       <c r="O94" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5522,25 +6278,43 @@
       <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="B95" s="2">
+        <v>589.70000000000005</v>
+      </c>
+      <c r="C95" s="2">
+        <v>494.1</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1083.8</v>
+      </c>
       <c r="E95" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
+      <c r="G95" s="2">
+        <v>56.6</v>
+      </c>
+      <c r="H95" s="2">
+        <v>47.8</v>
+      </c>
+      <c r="I95" s="2">
+        <v>104.4</v>
+      </c>
       <c r="J95" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="L95" s="2">
+        <v>646.29999999999995</v>
+      </c>
+      <c r="M95" s="2">
+        <v>541.9</v>
+      </c>
+      <c r="N95" s="2">
+        <v>1188.2</v>
+      </c>
       <c r="O95" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5562,25 +6336,43 @@
       <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="B96" s="2">
+        <v>857.3</v>
+      </c>
+      <c r="C96" s="2">
+        <v>733.5</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1590.8</v>
+      </c>
       <c r="E96" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
+      <c r="G96" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="H96" s="2">
+        <v>117.5</v>
+      </c>
+      <c r="I96" s="2">
+        <v>267.39999999999998</v>
+      </c>
       <c r="J96" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="L96" s="2">
+        <v>1007.2</v>
+      </c>
+      <c r="M96" s="2">
+        <v>851</v>
+      </c>
+      <c r="N96" s="2">
+        <v>1858.2</v>
+      </c>
       <c r="O96" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5602,25 +6394,43 @@
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="B97" s="2">
+        <v>303.89999999999998</v>
+      </c>
+      <c r="C97" s="2">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="D97" s="2">
+        <v>576.79999999999995</v>
+      </c>
       <c r="E97" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
+      <c r="G97" s="2">
+        <v>21.2</v>
+      </c>
+      <c r="H97" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="I97" s="2">
+        <v>40.4</v>
+      </c>
       <c r="J97" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="L97" s="2">
+        <v>325.10000000000002</v>
+      </c>
+      <c r="M97" s="2">
+        <v>292.10000000000002</v>
+      </c>
+      <c r="N97" s="2">
+        <v>617.20000000000005</v>
+      </c>
       <c r="O97" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5642,25 +6452,43 @@
       <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="B98" s="2">
+        <v>369.2</v>
+      </c>
+      <c r="C98" s="2">
+        <v>330.6</v>
+      </c>
+      <c r="D98" s="2">
+        <v>699.8</v>
+      </c>
       <c r="E98" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
+      <c r="G98" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="H98" s="2">
+        <v>39</v>
+      </c>
+      <c r="I98" s="2">
+        <v>75.599999999999994</v>
+      </c>
       <c r="J98" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="L98" s="2">
+        <v>405.8</v>
+      </c>
+      <c r="M98" s="2">
+        <v>369.6</v>
+      </c>
+      <c r="N98" s="2">
+        <v>775.4</v>
+      </c>
       <c r="O98" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5682,25 +6510,43 @@
       <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="B99" s="2">
+        <v>878.9</v>
+      </c>
+      <c r="C99" s="2">
+        <v>758.1</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1637</v>
+      </c>
       <c r="E99" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
+      <c r="G99" s="2">
+        <v>211.7</v>
+      </c>
+      <c r="H99" s="2">
+        <v>185.5</v>
+      </c>
+      <c r="I99" s="2">
+        <v>397.2</v>
+      </c>
       <c r="J99" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+      <c r="L99" s="2">
+        <v>1090.5999999999999</v>
+      </c>
+      <c r="M99" s="2">
+        <v>943.6</v>
+      </c>
+      <c r="N99" s="2">
+        <v>2034.2</v>
+      </c>
       <c r="O99" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5722,25 +6568,43 @@
       <c r="A100" t="s">
         <v>116</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="B100" s="2">
+        <v>1297.5</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1289.3</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2586.8000000000002</v>
+      </c>
       <c r="E100" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
+      <c r="G100" s="2">
+        <v>208.1</v>
+      </c>
+      <c r="H100" s="2">
+        <v>235.5</v>
+      </c>
+      <c r="I100" s="2">
+        <v>443.6</v>
+      </c>
       <c r="J100" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+      <c r="L100" s="2">
+        <v>1505.6</v>
+      </c>
+      <c r="M100" s="2">
+        <v>1524.8</v>
+      </c>
+      <c r="N100" s="2">
+        <v>3030.4</v>
+      </c>
       <c r="O100" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5762,25 +6626,43 @@
       <c r="A101" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="B101" s="2">
+        <v>208.6</v>
+      </c>
+      <c r="C101" s="2">
+        <v>209.7</v>
+      </c>
+      <c r="D101" s="2">
+        <v>418.3</v>
+      </c>
       <c r="E101" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
+      <c r="G101" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="H101" s="2">
+        <v>41.4</v>
+      </c>
+      <c r="I101" s="2">
+        <v>78.3</v>
+      </c>
       <c r="J101" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+      <c r="L101" s="2">
+        <v>245.5</v>
+      </c>
+      <c r="M101" s="2">
+        <v>251.1</v>
+      </c>
+      <c r="N101" s="2">
+        <v>496.6</v>
+      </c>
       <c r="O101" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5802,25 +6684,43 @@
       <c r="A102" t="s">
         <v>120</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="B102" s="2">
+        <v>231.6</v>
+      </c>
+      <c r="C102" s="2">
+        <v>229.6</v>
+      </c>
+      <c r="D102" s="2">
+        <v>461.2</v>
+      </c>
       <c r="E102" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
+      <c r="G102" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H102" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="I102" s="2">
+        <v>38</v>
+      </c>
       <c r="J102" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+      <c r="L102" s="2">
+        <v>249</v>
+      </c>
+      <c r="M102" s="2">
+        <v>250.2</v>
+      </c>
+      <c r="N102" s="2">
+        <v>499.2</v>
+      </c>
       <c r="O102" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5842,25 +6742,43 @@
       <c r="A103" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="B103" s="2">
+        <v>220.6</v>
+      </c>
+      <c r="C103" s="2">
+        <v>222.3</v>
+      </c>
+      <c r="D103" s="2">
+        <v>442.9</v>
+      </c>
       <c r="E103" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
+      <c r="G103" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="H103" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="I103" s="2">
+        <v>55.1</v>
+      </c>
       <c r="J103" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+      <c r="L103" s="2">
+        <v>247.9</v>
+      </c>
+      <c r="M103" s="2">
+        <v>250.1</v>
+      </c>
+      <c r="N103" s="2">
+        <v>498</v>
+      </c>
       <c r="O103" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5882,25 +6800,43 @@
       <c r="A104" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="B104" s="2">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="C104" s="2">
+        <v>152.9</v>
+      </c>
+      <c r="D104" s="2">
+        <v>307.7</v>
+      </c>
       <c r="E104" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
+      <c r="G104" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="H104" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="I104" s="2">
+        <v>22.5</v>
+      </c>
       <c r="J104" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="L104" s="2">
+        <v>165.6</v>
+      </c>
+      <c r="M104" s="2">
+        <v>164.6</v>
+      </c>
+      <c r="N104" s="2">
+        <v>330.2</v>
+      </c>
       <c r="O104" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5922,25 +6858,43 @@
       <c r="A105" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="B105" s="2">
+        <v>101.1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>102.4</v>
+      </c>
+      <c r="D105" s="2">
+        <v>203.5</v>
+      </c>
       <c r="E105" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
+      <c r="G105" s="2">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="H105" s="2">
+        <v>84.1</v>
+      </c>
+      <c r="I105" s="2">
+        <v>156.69999999999999</v>
+      </c>
       <c r="J105" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+      <c r="L105" s="2">
+        <v>173.7</v>
+      </c>
+      <c r="M105" s="2">
+        <v>186.5</v>
+      </c>
+      <c r="N105" s="2">
+        <v>360.2</v>
+      </c>
       <c r="O105" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5962,25 +6916,43 @@
       <c r="A106" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="B106" s="2">
+        <v>93.7</v>
+      </c>
+      <c r="C106" s="2">
+        <v>93.3</v>
+      </c>
+      <c r="D106" s="2">
+        <v>187</v>
+      </c>
       <c r="E106" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
+      <c r="G106" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H106" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="I106" s="2">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="J106" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+      <c r="L106" s="2">
+        <v>98.2</v>
+      </c>
+      <c r="M106" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="N106" s="2">
+        <v>196.7</v>
+      </c>
       <c r="O106" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6002,25 +6974,43 @@
       <c r="A107" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="B107" s="2">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="C107" s="2">
+        <v>138.9</v>
+      </c>
+      <c r="D107" s="2">
+        <v>280.2</v>
+      </c>
       <c r="E107" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
+      <c r="G107" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="H107" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="I107" s="2">
+        <v>54.9</v>
+      </c>
       <c r="J107" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+      <c r="L107" s="2">
+        <v>166.4</v>
+      </c>
+      <c r="M107" s="2">
+        <v>168.7</v>
+      </c>
+      <c r="N107" s="2">
+        <v>335.1</v>
+      </c>
       <c r="O107" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6042,25 +7032,43 @@
       <c r="A108" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="B108" s="2">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="C108" s="2">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="D108" s="2">
+        <v>286</v>
+      </c>
       <c r="E108" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
+      <c r="G108" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="H108" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="I108" s="2">
+        <v>28.4</v>
+      </c>
       <c r="J108" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
+      <c r="L108" s="2">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="M108" s="2">
+        <v>155.1</v>
+      </c>
+      <c r="N108" s="2">
+        <v>314.39999999999998</v>
+      </c>
       <c r="O108" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6082,23 +7090,41 @@
       <c r="A109" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="B109" s="2">
+        <v>70258.100000000006</v>
+      </c>
+      <c r="C109" s="2">
+        <v>71013.899999999994</v>
+      </c>
+      <c r="D109" s="2">
+        <v>141272</v>
+      </c>
       <c r="E109" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
+      <c r="G109" s="2">
+        <v>11722.5</v>
+      </c>
+      <c r="H109" s="2">
+        <v>10784.3</v>
+      </c>
+      <c r="I109" s="2">
+        <v>22506.799999999999</v>
+      </c>
       <c r="J109" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+      <c r="L109" s="2">
+        <v>81980.600000000006</v>
+      </c>
+      <c r="M109" s="2">
+        <v>81798.2</v>
+      </c>
+      <c r="N109" s="2">
+        <v>163778.79999999999</v>
+      </c>
       <c r="O109" s="4">
         <f t="shared" si="8"/>
         <v>0</v>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1910.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1910.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FB1926-A3B8-4D11-9DDF-02B59685BCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF65071-FB53-410B-BA9D-C504291D24A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
@@ -818,7 +818,7 @@
   <dimension ref="A1:S109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5185,11 +5185,11 @@
         <v>426.9</v>
       </c>
       <c r="D76" s="2">
-        <v>908.41</v>
+        <v>908.4</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" si="6"/>
-        <v>-9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="S76" s="4">
         <f t="shared" si="11"/>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1910.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1910.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF65071-FB53-410B-BA9D-C504291D24A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5584DFE7-0F33-4E28-8597-791E57828DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89130" yWindow="930" windowWidth="24855" windowHeight="22575" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -817,8 +817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
